--- a/Docs/冬休みまでの予定表(12月27日まで).xlsx
+++ b/Docs/冬休みまでの予定表(12月27日まで).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="7620"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12225" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -922,9 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Docs/冬休みまでの予定表(12月27日まで).xlsx
+++ b/Docs/冬休みまでの予定表(12月27日まで).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12225" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -922,9 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Docs/冬休みまでの予定表(12月27日まで).xlsx
+++ b/Docs/冬休みまでの予定表(12月27日まで).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\newSurvior\Docs\"/>
@@ -408,16 +408,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スキル用エフェクト作成</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>それまでに作成した絵の修正</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
@@ -464,6 +454,65 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣ヒット時のエフェクトの作成(切っているようなエフェクト)
+点攻撃用エフェクトの変更(現在のは世界観がサイバーだった時用の電気の爆発的なものなので、今度は炎の爆発のようなもの)</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セカイカン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バクハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -920,11 +969,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1234,7 +1284,7 @@
         <v>41984</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1295,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>34</v>
@@ -1254,10 +1304,10 @@
         <v>34</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1292,22 +1342,22 @@
         <v>41989</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1334,7 +1384,7 @@
         <v>41992</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
